--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/correct_predictions_17.xlsx
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,52 +866,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/correct_predictions_17.xlsx
@@ -806,12 +806,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>30-32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30-32</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,52 +866,52 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
